--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_ItemData.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_ItemData.xlsx
@@ -145,7 +145,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="fc232ce9-06fd-4d37-8031-4f5a8113a6ea" xfId="1"/>
+    <cellStyle name="a9d77071-278f-4991-b90c-d8c36d874f31" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_ItemData.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_ItemData.xlsx
@@ -145,7 +145,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="a9d77071-278f-4991-b90c-d8c36d874f31" xfId="1"/>
+    <cellStyle name="1f567550-1b90-4ff6-ad76-bda8a09ab1f3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
